--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eholgado\Documents\GitHub\StremliteContractos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpolar\Documents\GitHub\Contratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF615C48-513F-4339-A04E-884972E39788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE214A2-5E6D-4E0D-8179-21D43C71BF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>RUC</t>
   </si>
@@ -819,6 +819,12 @@
   </si>
   <si>
     <t xml:space="preserve">CORPORACION SENSUS SOCIEDAD ANONIMA - CORPSENSUS S.A. </t>
+  </si>
+  <si>
+    <t>PROTEGE SERVICIOS S.A. - PROTEGE SERVICIOS</t>
+  </si>
+  <si>
+    <t>PROTECCION Y RESGUARDO S A</t>
   </si>
 </sst>
 </file>
@@ -878,8 +884,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B136" totalsRowShown="0">
-  <autoFilter ref="A1:B136" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B138" totalsRowShown="0">
+  <autoFilter ref="A1:B138" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1205,20 +1211,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:B136"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1233,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1242,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1251,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1260,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1269,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1278,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1287,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1290,7 +1296,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1305,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1314,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1323,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1326,7 +1332,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1335,7 +1341,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1344,7 +1350,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1362,7 +1368,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1371,7 +1377,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +1386,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +1395,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1398,7 +1404,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1416,7 +1422,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1425,7 +1431,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1434,7 +1440,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1443,7 +1449,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1587,7 +1593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20601016347</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20601771641</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>20527026238</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>20526331762</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>20195592200</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20514073423</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>10103011332</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>20600911300</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20600683650</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>20533651918</v>
       </c>
@@ -2323,12 +2329,28 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>20557387421</v>
       </c>
       <c r="B136" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>20600182197</v>
+      </c>
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>20100717124</v>
+      </c>
+      <c r="B138" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpolar\Documents\GitHub\Contratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE214A2-5E6D-4E0D-8179-21D43C71BF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE7D0C1-4881-40A1-92DF-FE82FCF61A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>RUC</t>
   </si>
@@ -825,6 +825,45 @@
   </si>
   <si>
     <t>PROTECCION Y RESGUARDO S A</t>
+  </si>
+  <si>
+    <t>20601016347</t>
+  </si>
+  <si>
+    <t>20601771641</t>
+  </si>
+  <si>
+    <t>20527026238</t>
+  </si>
+  <si>
+    <t>20526331762</t>
+  </si>
+  <si>
+    <t>20195592200</t>
+  </si>
+  <si>
+    <t>20514073423</t>
+  </si>
+  <si>
+    <t>10103011332</t>
+  </si>
+  <si>
+    <t>20600911300</t>
+  </si>
+  <si>
+    <t>20600683650</t>
+  </si>
+  <si>
+    <t>20533651918</t>
+  </si>
+  <si>
+    <t>20557387421</t>
+  </si>
+  <si>
+    <t>20600182197</t>
+  </si>
+  <si>
+    <t>20100717124</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1273,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1243,7 +1282,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1252,7 +1291,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1261,7 +1300,7 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1270,7 +1309,7 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1279,7 +1318,7 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1288,7 +1327,7 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -1297,7 +1336,7 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -1306,7 +1345,7 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1315,7 +1354,7 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -1324,7 +1363,7 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
@@ -1333,7 +1372,7 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
@@ -1342,7 +1381,7 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -1351,7 +1390,7 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
@@ -1360,7 +1399,7 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
@@ -1369,7 +1408,7 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
@@ -1378,7 +1417,7 @@
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
@@ -1387,7 +1426,7 @@
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
@@ -1396,7 +1435,7 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
@@ -1405,7 +1444,7 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
@@ -1414,7 +1453,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
@@ -1423,7 +1462,7 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
@@ -1432,7 +1471,7 @@
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
@@ -1441,7 +1480,7 @@
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
@@ -1450,7 +1489,7 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
@@ -1458,7 +1497,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
@@ -1466,7 +1505,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
@@ -1474,7 +1513,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
@@ -1482,7 +1521,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
@@ -1490,7 +1529,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
@@ -1498,7 +1537,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
@@ -1506,7 +1545,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
@@ -1514,7 +1553,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
@@ -1522,7 +1561,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
@@ -1530,7 +1569,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
@@ -1538,7 +1577,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
@@ -1546,7 +1585,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
@@ -1554,7 +1593,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
@@ -1562,7 +1601,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
@@ -1570,7 +1609,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
@@ -1578,7 +1617,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
@@ -1586,7 +1625,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
@@ -1594,7 +1633,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
@@ -1602,7 +1641,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
@@ -1610,7 +1649,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
@@ -1618,7 +1657,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
@@ -1626,7 +1665,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
@@ -1634,7 +1673,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
@@ -1642,7 +1681,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
@@ -1650,7 +1689,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
@@ -1658,7 +1697,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
@@ -1666,7 +1705,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
@@ -1674,7 +1713,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
@@ -1682,7 +1721,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B55" t="s">
@@ -1690,7 +1729,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
@@ -1698,7 +1737,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
@@ -1706,7 +1745,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
@@ -1714,7 +1753,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -1722,7 +1761,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -1730,7 +1769,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B61" t="s">
@@ -1738,7 +1777,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B62" t="s">
@@ -1746,7 +1785,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B63" t="s">
@@ -1754,7 +1793,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B64" t="s">
@@ -1762,7 +1801,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B65" t="s">
@@ -1770,7 +1809,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B66" t="s">
@@ -1778,7 +1817,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B67" t="s">
@@ -1786,7 +1825,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B68" t="s">
@@ -1794,7 +1833,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B69" t="s">
@@ -1802,7 +1841,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B70" t="s">
@@ -1810,7 +1849,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B71" t="s">
@@ -1818,7 +1857,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B72" t="s">
@@ -1826,7 +1865,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B73" t="s">
@@ -1834,7 +1873,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B74" t="s">
@@ -1842,7 +1881,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B75" t="s">
@@ -1850,7 +1889,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B76" t="s">
@@ -1858,7 +1897,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B77" t="s">
@@ -1866,7 +1905,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B78" t="s">
@@ -1874,7 +1913,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B79" t="s">
@@ -1882,7 +1921,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B80" t="s">
@@ -1890,7 +1929,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B81" t="s">
@@ -1898,7 +1937,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B82" t="s">
@@ -1906,7 +1945,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B83" t="s">
@@ -1914,7 +1953,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B84" t="s">
@@ -1922,7 +1961,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B85" t="s">
@@ -1930,7 +1969,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B86" t="s">
@@ -1938,7 +1977,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B87" t="s">
@@ -1946,7 +1985,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B88" t="s">
@@ -1954,7 +1993,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B89" t="s">
@@ -1962,7 +2001,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B90" t="s">
@@ -1970,7 +2009,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B91" t="s">
@@ -1978,7 +2017,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B92" t="s">
@@ -1986,7 +2025,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B93" t="s">
@@ -1994,7 +2033,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B94" t="s">
@@ -2002,7 +2041,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B95" t="s">
@@ -2010,7 +2049,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B96" t="s">
@@ -2018,7 +2057,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B97" t="s">
@@ -2026,7 +2065,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B98" t="s">
@@ -2034,7 +2073,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B99" t="s">
@@ -2042,7 +2081,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B100" t="s">
@@ -2050,7 +2089,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B101" t="s">
@@ -2058,7 +2097,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B102" t="s">
@@ -2066,7 +2105,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B103" t="s">
@@ -2074,7 +2113,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B104" t="s">
@@ -2082,7 +2121,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B105" t="s">
@@ -2090,7 +2129,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B106" t="s">
@@ -2098,7 +2137,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B107" t="s">
@@ -2106,7 +2145,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B108" t="s">
@@ -2114,7 +2153,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B109" t="s">
@@ -2122,7 +2161,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B110" t="s">
@@ -2130,15 +2169,15 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>20601016347</v>
+      <c r="A111" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B111" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B112" t="s">
@@ -2146,7 +2185,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B113" t="s">
@@ -2154,7 +2193,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B114" t="s">
@@ -2162,7 +2201,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B115" t="s">
@@ -2170,7 +2209,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B116" t="s">
@@ -2178,7 +2217,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B117" t="s">
@@ -2186,7 +2225,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B118" t="s">
@@ -2194,7 +2233,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B119" t="s">
@@ -2202,7 +2241,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B120" t="s">
@@ -2210,7 +2249,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B121" t="s">
@@ -2218,7 +2257,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B122" t="s">
@@ -2226,7 +2265,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B123" t="s">
@@ -2234,7 +2273,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B124" t="s">
@@ -2242,7 +2281,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B125" t="s">
@@ -2250,47 +2289,47 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>20601771641</v>
+      <c r="A126" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="B126" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>20527026238</v>
+      <c r="A127" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>20526331762</v>
+      <c r="A128" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B128" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>20195592200</v>
+      <c r="A129" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B129" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>20514073423</v>
+      <c r="A130" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B130" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B131" t="s">
@@ -2298,56 +2337,56 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>10103011332</v>
+      <c r="A132" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="B132" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>20600911300</v>
+      <c r="A133" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B133" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>20600683650</v>
+      <c r="A134" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B134" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>20533651918</v>
+      <c r="A135" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="B135" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>20557387421</v>
+      <c r="A136" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="B136" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>20600182197</v>
+      <c r="A137" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B137" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>20100717124</v>
+      <c r="A138" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B138" t="s">
         <v>262</v>

--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpolar\Documents\GitHub\Contratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE7D0C1-4881-40A1-92DF-FE82FCF61A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB52212-52D0-4267-975E-EB896261F5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>RUC</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>20100717124</t>
+  </si>
+  <si>
+    <t>20263373058 </t>
+  </si>
+  <si>
+    <t>INSTITUTO DE CONSULTORIA S.A.</t>
   </si>
 </sst>
 </file>
@@ -923,8 +929,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B138" totalsRowShown="0">
-  <autoFilter ref="A1:B138" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B139" totalsRowShown="0">
+  <autoFilter ref="A1:B139" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1250,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,6 +2398,14 @@
         <v>262</v>
       </c>
     </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C64">
     <sortCondition ref="C1:C64"/>

--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpolar\Documents\GitHub\Contratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB52212-52D0-4267-975E-EB896261F5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757081EE-6126-4125-86AA-6A96CD40A5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>RUC</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>INSTITUTO DE CONSULTORIA S.A.</t>
+  </si>
+  <si>
+    <t>HTYV CORPORACION EMPRESARIAL S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -929,8 +932,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B139" totalsRowShown="0">
-  <autoFilter ref="A1:B139" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B140" totalsRowShown="0">
+  <autoFilter ref="A1:B140" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1256,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,6 +2409,14 @@
         <v>277</v>
       </c>
     </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>20530091075</v>
+      </c>
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C64">
     <sortCondition ref="C1:C64"/>

--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpolar\Documents\GitHub\Contratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757081EE-6126-4125-86AA-6A96CD40A5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD74CE-29C0-42D4-B57E-C4892B8BCD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>RUC</t>
   </si>
@@ -873,6 +873,15 @@
   </si>
   <si>
     <t>HTYV CORPORACION EMPRESARIAL S.A.C.</t>
+  </si>
+  <si>
+    <t>20530091075</t>
+  </si>
+  <si>
+    <t>20488040988</t>
+  </si>
+  <si>
+    <t>CONSULTORES &amp; CONSTRUCTORES RIBAB E.I.R.L.</t>
   </si>
 </sst>
 </file>
@@ -932,8 +941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B140" totalsRowShown="0">
-  <autoFilter ref="A1:B140" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B141" totalsRowShown="0">
+  <autoFilter ref="A1:B141" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1259,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,11 +2419,19 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>20530091075</v>
+      <c r="A140" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="B140" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpolar\Documents\GitHub\Contratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD74CE-29C0-42D4-B57E-C4892B8BCD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CD2867-065D-4D28-9FAC-B37EC4875733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>RUC</t>
   </si>
@@ -882,6 +882,24 @@
   </si>
   <si>
     <t>CONSULTORES &amp; CONSTRUCTORES RIBAB E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA BIDOLINO EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA SANCHEZ CERRO EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIONES Y SERVICIOS YADIMAR E.I.R.L.</t>
+  </si>
+  <si>
+    <t>20526201478</t>
+  </si>
+  <si>
+    <t>20526203501</t>
+  </si>
+  <si>
+    <t>20529705043</t>
   </si>
 </sst>
 </file>
@@ -941,8 +959,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B141" totalsRowShown="0">
-  <autoFilter ref="A1:B141" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B144" totalsRowShown="0">
+  <autoFilter ref="A1:B144" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1268,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,6 +2452,30 @@
         <v>281</v>
       </c>
     </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C64">
     <sortCondition ref="C1:C64"/>

--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpolar\Documents\GitHub\Contratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CD2867-065D-4D28-9FAC-B37EC4875733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8911A940-19D7-45C2-8E8E-0E78B1A7FB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>RUC</t>
   </si>
@@ -900,6 +900,12 @@
   </si>
   <si>
     <t>20529705043</t>
+  </si>
+  <si>
+    <t>10416489918</t>
+  </si>
+  <si>
+    <t>ESCOBAR ORIZANO YONY SAMUEL</t>
   </si>
 </sst>
 </file>
@@ -959,8 +965,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B144" totalsRowShown="0">
-  <autoFilter ref="A1:B144" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B145" totalsRowShown="0">
+  <autoFilter ref="A1:B145" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1286,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,6 +2482,14 @@
         <v>284</v>
       </c>
     </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C64">
     <sortCondition ref="C1:C64"/>

--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpolar\Documents\GitHub\Contratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8911A940-19D7-45C2-8E8E-0E78B1A7FB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6187D-5E73-4A10-B242-0778FA556DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>RUC</t>
   </si>
@@ -906,6 +906,18 @@
   </si>
   <si>
     <t>ESCOBAR ORIZANO YONY SAMUEL</t>
+  </si>
+  <si>
+    <t>CONTRATISTAS Y CONSULTORES MENDOZA SRL</t>
+  </si>
+  <si>
+    <t>EMPRESA CONSTRUCTORA J.P. SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>20452440912</t>
+  </si>
+  <si>
+    <t>20452663032</t>
   </si>
 </sst>
 </file>
@@ -965,8 +977,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B145" totalsRowShown="0">
-  <autoFilter ref="A1:B145" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B147" totalsRowShown="0">
+  <autoFilter ref="A1:B147" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1292,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,6 +2502,22 @@
         <v>289</v>
       </c>
     </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C64">
     <sortCondition ref="C1:C64"/>
